--- a/Entity/wwwroot/Uploads/employee (2) (1).xlsx
+++ b/Entity/wwwroot/Uploads/employee (2) (1).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="18">
   <si>
     <t>Id</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>Anh</t>
-  </si>
-  <si>
-    <t>111928374659</t>
   </si>
   <si>
     <t>JobId</t>
@@ -108,9 +105,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -129,8 +127,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K6">
-  <autoFilter ref="A1:K6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K49">
+  <autoFilter ref="A1:K49"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Id"/>
     <tableColumn id="2" name="Name"/>
@@ -411,14 +409,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
@@ -437,10 +436,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -449,13 +448,13 @@
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -477,9 +476,6 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>123432243232</v>
-      </c>
       <c r="H2" t="s">
         <v>8</v>
       </c>
@@ -512,9 +508,6 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3">
-        <v>111628374651</v>
-      </c>
       <c r="H3" t="s">
         <v>8</v>
       </c>
@@ -533,7 +526,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -545,7 +538,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>
@@ -577,13 +570,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>198726354782</v>
-      </c>
-      <c r="H5">
-        <v>987654321</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>10</v>
@@ -600,10 +587,10 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
+        <v>16</v>
+      </c>
+      <c r="C6" s="2">
+        <v>37174</v>
       </c>
       <c r="D6">
         <v>23</v>
@@ -614,9 +601,6 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
       <c r="H6" t="s">
         <v>8</v>
       </c>
@@ -627,6 +611,1373 @@
         <v>12</v>
       </c>
       <c r="K6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>37174</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>12</v>
+      </c>
+      <c r="K7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>37174</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>12</v>
+      </c>
+      <c r="K8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>111</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>37174</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9">
+        <v>12</v>
+      </c>
+      <c r="K9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="1">
+        <v>10</v>
+      </c>
+      <c r="J10" s="1">
+        <v>12</v>
+      </c>
+      <c r="K10" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="1">
+        <v>10</v>
+      </c>
+      <c r="J11" s="1">
+        <v>12</v>
+      </c>
+      <c r="K11" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1">
+        <v>24</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="1">
+        <v>10</v>
+      </c>
+      <c r="J12" s="1">
+        <v>12</v>
+      </c>
+      <c r="K12" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1">
+        <v>23</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1">
+        <v>10</v>
+      </c>
+      <c r="J13" s="1">
+        <v>12</v>
+      </c>
+      <c r="K13" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2">
+        <v>37174</v>
+      </c>
+      <c r="D14" s="1">
+        <v>23</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="1">
+        <v>10</v>
+      </c>
+      <c r="J14" s="1">
+        <v>12</v>
+      </c>
+      <c r="K14" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>37174</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1">
+        <v>10</v>
+      </c>
+      <c r="J15" s="1">
+        <v>12</v>
+      </c>
+      <c r="K15" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>37174</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1">
+        <v>10</v>
+      </c>
+      <c r="J16" s="1">
+        <v>12</v>
+      </c>
+      <c r="K16" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1">
+        <v>111</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>37174</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1">
+        <v>10</v>
+      </c>
+      <c r="J17" s="1">
+        <v>12</v>
+      </c>
+      <c r="K17" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1">
+        <v>20</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="1">
+        <v>10</v>
+      </c>
+      <c r="J18" s="1">
+        <v>12</v>
+      </c>
+      <c r="K18" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1">
+        <v>23</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="1">
+        <v>10</v>
+      </c>
+      <c r="J19" s="1">
+        <v>12</v>
+      </c>
+      <c r="K19" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1">
+        <v>24</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="1">
+        <v>10</v>
+      </c>
+      <c r="J20" s="1">
+        <v>12</v>
+      </c>
+      <c r="K20" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1">
+        <v>12</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1">
+        <v>23</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1">
+        <v>10</v>
+      </c>
+      <c r="J21" s="1">
+        <v>12</v>
+      </c>
+      <c r="K21" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1">
+        <v>14</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="2">
+        <v>37174</v>
+      </c>
+      <c r="D22" s="1">
+        <v>23</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="1">
+        <v>10</v>
+      </c>
+      <c r="J22" s="1">
+        <v>12</v>
+      </c>
+      <c r="K22" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>37174</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1">
+        <v>10</v>
+      </c>
+      <c r="J23" s="1">
+        <v>12</v>
+      </c>
+      <c r="K23" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1">
+        <v>12</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
+        <v>37174</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1">
+        <v>10</v>
+      </c>
+      <c r="J24" s="1">
+        <v>12</v>
+      </c>
+      <c r="K24" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1">
+        <v>111</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>37174</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1">
+        <v>10</v>
+      </c>
+      <c r="J25" s="1">
+        <v>12</v>
+      </c>
+      <c r="K25" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1">
+        <v>2</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="1">
+        <v>20</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="1">
+        <v>10</v>
+      </c>
+      <c r="J26" s="1">
+        <v>12</v>
+      </c>
+      <c r="K26" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="1">
+        <v>23</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="1">
+        <v>10</v>
+      </c>
+      <c r="J27" s="1">
+        <v>12</v>
+      </c>
+      <c r="K27" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="1">
+        <v>24</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="1">
+        <v>10</v>
+      </c>
+      <c r="J28" s="1">
+        <v>12</v>
+      </c>
+      <c r="K28" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1">
+        <v>12</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="1">
+        <v>23</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1">
+        <v>10</v>
+      </c>
+      <c r="J29" s="1">
+        <v>12</v>
+      </c>
+      <c r="K29" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1">
+        <v>14</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="2">
+        <v>37174</v>
+      </c>
+      <c r="D30" s="1">
+        <v>23</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" s="1">
+        <v>10</v>
+      </c>
+      <c r="J30" s="1">
+        <v>12</v>
+      </c>
+      <c r="K30" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2">
+        <v>37174</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1">
+        <v>10</v>
+      </c>
+      <c r="J31" s="1">
+        <v>12</v>
+      </c>
+      <c r="K31" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1">
+        <v>12</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2">
+        <v>37174</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1">
+        <v>10</v>
+      </c>
+      <c r="J32" s="1">
+        <v>12</v>
+      </c>
+      <c r="K32" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1">
+        <v>111</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2">
+        <v>37174</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1">
+        <v>10</v>
+      </c>
+      <c r="J33" s="1">
+        <v>12</v>
+      </c>
+      <c r="K33" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1">
+        <v>2</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="1">
+        <v>20</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" s="1">
+        <v>10</v>
+      </c>
+      <c r="J34" s="1">
+        <v>12</v>
+      </c>
+      <c r="K34" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="1">
+        <v>23</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="1">
+        <v>10</v>
+      </c>
+      <c r="J35" s="1">
+        <v>12</v>
+      </c>
+      <c r="K35" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="1">
+        <v>24</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36" s="1">
+        <v>10</v>
+      </c>
+      <c r="J36" s="1">
+        <v>12</v>
+      </c>
+      <c r="K36" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1">
+        <v>12</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="1">
+        <v>23</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1">
+        <v>10</v>
+      </c>
+      <c r="J37" s="1">
+        <v>12</v>
+      </c>
+      <c r="K37" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1">
+        <v>14</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="2">
+        <v>37174</v>
+      </c>
+      <c r="D38" s="1">
+        <v>23</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" s="1">
+        <v>10</v>
+      </c>
+      <c r="J38" s="1">
+        <v>12</v>
+      </c>
+      <c r="K38" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1">
+        <v>1</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2">
+        <v>37174</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1">
+        <v>10</v>
+      </c>
+      <c r="J39" s="1">
+        <v>12</v>
+      </c>
+      <c r="K39" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1">
+        <v>12</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2">
+        <v>37174</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1">
+        <v>10</v>
+      </c>
+      <c r="J40" s="1">
+        <v>12</v>
+      </c>
+      <c r="K40" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1">
+        <v>111</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2">
+        <v>37174</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1">
+        <v>10</v>
+      </c>
+      <c r="J41" s="1">
+        <v>12</v>
+      </c>
+      <c r="K41" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1">
+        <v>2</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="1">
+        <v>20</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="1">
+        <v>10</v>
+      </c>
+      <c r="J42" s="1">
+        <v>12</v>
+      </c>
+      <c r="K42" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1">
+        <v>4</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="1">
+        <v>23</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="1">
+        <v>10</v>
+      </c>
+      <c r="J43" s="1">
+        <v>12</v>
+      </c>
+      <c r="K43" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1">
+        <v>5</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="1">
+        <v>24</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="1">
+        <v>10</v>
+      </c>
+      <c r="J44" s="1">
+        <v>12</v>
+      </c>
+      <c r="K44" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1">
+        <v>12</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="1">
+        <v>23</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1">
+        <v>10</v>
+      </c>
+      <c r="J45" s="1">
+        <v>12</v>
+      </c>
+      <c r="K45" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1">
+        <v>14</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="2">
+        <v>37174</v>
+      </c>
+      <c r="D46" s="1">
+        <v>23</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" s="1">
+        <v>10</v>
+      </c>
+      <c r="J46" s="1">
+        <v>12</v>
+      </c>
+      <c r="K46" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1">
+        <v>1</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2">
+        <v>37174</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1">
+        <v>10</v>
+      </c>
+      <c r="J47" s="1">
+        <v>12</v>
+      </c>
+      <c r="K47" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1">
+        <v>12</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2">
+        <v>37174</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1">
+        <v>10</v>
+      </c>
+      <c r="J48" s="1">
+        <v>12</v>
+      </c>
+      <c r="K48" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="1">
+        <v>111</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2">
+        <v>37174</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1">
+        <v>10</v>
+      </c>
+      <c r="J49" s="1">
+        <v>12</v>
+      </c>
+      <c r="K49" s="1">
         <v>12</v>
       </c>
     </row>
